--- a/Database/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
+++ b/Database/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78CDB2E-87E9-4921-A8FC-317336F68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6508D-A411-4AF7-8EDD-CA2FAF4185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="600" windowWidth="16500" windowHeight="12360" xr2:uid="{48576F27-1784-45A5-991B-85435575C836}"/>
+    <workbookView xWindow="1152" yWindow="144" windowWidth="17424" windowHeight="12360" xr2:uid="{48576F27-1784-45A5-991B-85435575C836}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Node1</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Problem:Does the fan become louder or blow more air when you turn it up? (Please answer as: Yes, No)</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>No change</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239E515E-EDA5-4ADE-8473-A217B28F0DBF}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -737,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>

--- a/Database/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
+++ b/Database/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A6508D-A411-4AF7-8EDD-CA2FAF4185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D3EA6-B060-4BD1-9F7C-086EE2507C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="144" windowWidth="17424" windowHeight="12360" xr2:uid="{48576F27-1784-45A5-991B-85435575C836}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{48576F27-1784-45A5-991B-85435575C836}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Node1</t>
   </si>
@@ -587,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239E515E-EDA5-4ADE-8473-A217B28F0DBF}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,37 +628,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -666,21 +666,21 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -699,65 +699,65 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -765,10 +765,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -776,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
@@ -787,36 +787,58 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
